--- a/Excel-2013/Excel Unit D/EX D-Quarterly Tour Expenses 88.xlsx
+++ b/Excel-2013/Excel Unit D/EX D-Quarterly Tour Expenses 88.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github_MS_Office_2013\microsoftOffice2013\Excel-2013\Excel Unit D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662ACCD-B671-42D5-A3EE-56682BE538C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02CE16-D9E0-4D79-A977-8147FF519E56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,11 +258,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -281,20 +281,28 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -307,54 +315,10 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="0"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="60"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="100"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -372,27 +336,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -481,27 +443,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
                 <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -590,27 +550,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -699,27 +657,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
                 <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -801,19 +757,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
         <c:axId val="428882184"/>
         <c:axId val="423926264"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="428882184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expenses (in $)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -822,9 +832,9 @@
           <a:noFill/>
           <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -836,14 +846,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -864,21 +874,62 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tour Countries</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -894,15 +945,15 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -923,15 +974,10 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -944,9 +990,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -963,30 +1009,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1052,15 +1082,15 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -1070,54 +1100,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -1126,13 +1117,36 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -1144,53 +1158,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -1201,19 +1193,50 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
           <a:schemeClr val="phClr">
-            <a:lumMod val="75000"/>
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1226,11 +1249,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1247,9 +1268,7 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1277,17 +1296,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1304,15 +1323,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1328,12 +1347,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1347,9 +1366,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1363,14 +1382,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:sp3d/>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1380,37 +1391,54 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1420,28 +1448,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1452,22 +1461,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1475,7 +1476,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1488,12 +1489,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr/>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1506,9 +1506,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1520,12 +1520,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1549,9 +1549,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1569,9 +1569,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1582,16 +1582,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1966,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
